--- a/biology/Zoologie/Gerbillus_andersoni/Gerbillus_andersoni.xlsx
+++ b/biology/Zoologie/Gerbillus_andersoni/Gerbillus_andersoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Gerbillus andersoni ou Gerbillus (Gerbillus) andersoni est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés appelée en français Gerbille d'Allenby ou Gerbille d'Anderson[1]. C'est une espèce côtière du pourtour sud est de la Méditerranée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Gerbillus andersoni ou Gerbillus (Gerbillus) andersoni est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés appelée en français Gerbille d'Allenby ou Gerbille d'Anderson. C'est une espèce côtière du pourtour sud est de la Méditerranée.
 Synonymes :
 Gerbillus allenbyi Thomas, 1918
 Gerbillus bonhotei Thomas, 1919</t>
